--- a/Excel/Ch. 12. Excel - Scatter Plot - Linear-Log Scales - Multiple.xlsx
+++ b/Excel/Ch. 12. Excel - Scatter Plot - Linear-Log Scales - Multiple.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\- - Final for Springer\3. Programs\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ALPHA">Sheet1!#REF!</definedName>
@@ -103,28 +104,28 @@
     <t>In Sheet1 all 5 scatter plots are presented on the</t>
   </si>
   <si>
-    <t>In Sheet2 the 5 scatter plots are presented separately</t>
-  </si>
-  <si>
     <t>A,B  D,E  G,H  J,K  and  M,N respectively.</t>
-  </si>
-  <si>
-    <t>least squares. The equations of the curves are shown.</t>
   </si>
   <si>
     <t>same graph.</t>
   </si>
   <si>
-    <t xml:space="preserve">In all cases, curves of the 3rd degree are fitted by </t>
-  </si>
-  <si>
     <t>If no numbers are entered in a column, the</t>
   </si>
   <si>
-    <t>corresponding curve will not be missing.</t>
+    <t>Scatter Plot - Linear-Log Scales - Multiple Curves</t>
   </si>
   <si>
-    <t>Scatter Plot - Linear-Log Scales - Multiple Curves</t>
+    <t>In Sheet2 curves of the 3rd degree are fitted to the plots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Sheet3 the scatter plots are presented separately. </t>
+  </si>
+  <si>
+    <t>Curves of the 3rd degree are fitted to the plots</t>
+  </si>
+  <si>
+    <t>corresponding curve will be missing.</t>
   </si>
 </sst>
 </file>
@@ -436,12 +437,6 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$3:$A$9995</c:f>
@@ -566,12 +561,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$21</c:f>
@@ -696,12 +685,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$2:$G$21</c:f>
@@ -826,12 +809,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$J$3:$J$21</c:f>
@@ -977,21 +954,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="12700" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$M$2:$M$21</c:f>
@@ -1159,6 +1121,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49265802473380782"/>
+              <c:y val="0.71617853090016304"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1604,7 +1574,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A253-420A-A671-F6BC9AABDD63}"/>
+              <c16:uniqueId val="{00000001-C82B-4A0A-B5A2-3DB59770E629}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2223,7 +2193,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-918A-4D22-8989-933D7D8A2B6A}"/>
+              <c16:uniqueId val="{00000001-7B0C-43C7-A96E-888425C3FB81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2644,7 +2614,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3F6-45A5-A41B-40B98EB37224}"/>
+              <c16:uniqueId val="{00000001-E5E4-476E-9917-807A196AABA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3068,7 +3038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E2F-40C0-9BD9-0D31F2BEDFE4}"/>
+              <c16:uniqueId val="{00000001-16DE-480E-8F08-DA776FBBCA00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3501,7 +3471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2968-442F-9451-0E01AA035080}"/>
+              <c16:uniqueId val="{00000001-C51F-4037-A7F1-55F2FA590DAA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3683,6 +3653,955 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$9995</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9993"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$9995</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9993"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-103A-41C2-B1CC-E83D8776E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-103A-41C2-B1CC-E83D8776E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-103A-41C2-B1CC-E83D8776E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>y4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-103A-41C2-B1CC-E83D8776E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-103A-41C2-B1CC-E83D8776E3BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="383311872"/>
+        <c:axId val="383315152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="383311872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>X-</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.49265802473380782"/>
+              <c:y val="0.71617853090016304"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383315152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="383315152"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>Y-</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Axis Title</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.7632217370208634E-3"/>
+              <c:y val="0.42433529224549582"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383311872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -6562,7 +7481,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="el-GR" sz="1100"/>
-            <a:t>in which a description of the graph may be given.</a:t>
+            <a:t>in which a description of the plots may be given.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7506,6 +8425,783 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.56526</cdr:x>
+      <cdr:y>0.32885</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62057</cdr:x>
+      <cdr:y>0.38223</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3698901" y="1754094"/>
+          <a:ext cx="361931" cy="284729"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>y2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60748</cdr:x>
+      <cdr:y>0.29971</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.66279</cdr:x>
+      <cdr:y>0.35309</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3975125" y="1598646"/>
+          <a:ext cx="361931" cy="284729"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>y3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.70209</cdr:x>
+      <cdr:y>0.26307</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7574</cdr:x>
+      <cdr:y>0.31645</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4594249" y="1403231"/>
+          <a:ext cx="361930" cy="284729"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>y4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84619</cdr:x>
+      <cdr:y>0.19346</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9015</cdr:x>
+      <cdr:y>0.24684</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5537200" y="1031908"/>
+          <a:ext cx="361931" cy="284729"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>y5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.54342</cdr:x>
+      <cdr:y>0.38025</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59874</cdr:x>
+      <cdr:y>0.4358</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 7"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3555972" y="2028254"/>
+          <a:ext cx="361996" cy="296304"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100"/>
+            <a:t>y1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7822,8 +9518,8 @@
   </sheetPr>
   <dimension ref="A1:AK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7843,13 +9539,13 @@
     <col min="13" max="13" width="6.5703125" style="12" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" style="12" customWidth="1"/>
     <col min="15" max="15" width="3.5703125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="12" customWidth="1"/>
     <col min="17" max="17" width="4" customWidth="1"/>
     <col min="18" max="18" width="11.7109375" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="22" max="22" width="3.140625" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
     <col min="24" max="24" width="9.140625" customWidth="1"/>
     <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -7963,7 +9659,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="S3" s="27"/>
       <c r="T3" s="27"/>
@@ -8096,7 +9792,7 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
@@ -8233,7 +9929,7 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
@@ -8284,7 +9980,7 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -8335,7 +10031,7 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -8435,7 +10131,7 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
@@ -8531,7 +10227,7 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
@@ -8558,7 +10254,7 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
@@ -8692,7 +10388,22 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
